--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3087278.078423061</v>
+        <v>-3089797.50022808</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>127.5532942524984</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835104</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.3165365479896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.0955237083906</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>315.8595012804882</v>
       </c>
       <c r="E14" t="n">
-        <v>343.1068297320671</v>
+        <v>256.447612583367</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>169.1250068984255</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>255.7842240471257</v>
       </c>
       <c r="I14" t="n">
         <v>2.753389432731282</v>
@@ -1661,7 +1661,7 @@
         <v>165.0944297994255</v>
       </c>
       <c r="U14" t="n">
-        <v>212.171631618707</v>
+        <v>212.1716316187075</v>
       </c>
       <c r="V14" t="n">
         <v>288.9287181299402</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>128.4232807584331</v>
       </c>
       <c r="D16" t="n">
-        <v>109.7919326780176</v>
+        <v>109.7919326780177</v>
       </c>
       <c r="E16" t="n">
         <v>107.6104223063745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>96.98807911718525</v>
       </c>
       <c r="G16" t="n">
-        <v>127.2022679188335</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>75.71728577247841</v>
+        <v>105.9314745741261</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.10861232985264</v>
+        <v>50.10861232985265</v>
       </c>
       <c r="S16" t="n">
         <v>150.9454849912472</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296.9351647046933</v>
+        <v>130.5305589342451</v>
       </c>
       <c r="C17" t="n">
         <v>279.4742148122203</v>
@@ -1853,7 +1853,7 @@
         <v>296.1316931134745</v>
       </c>
       <c r="F17" t="n">
-        <v>154.672763012477</v>
+        <v>321.0773687829242</v>
       </c>
       <c r="G17" t="n">
         <v>325.1230486946662</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>23.38908482938855</v>
+        <v>23.38908482938858</v>
       </c>
       <c r="T17" t="n">
         <v>118.1192931808329</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.03330322315004</v>
+        <v>94.03330322315003</v>
       </c>
       <c r="C19" t="n">
-        <v>81.44814413984058</v>
+        <v>81.44814413984057</v>
       </c>
       <c r="D19" t="n">
-        <v>62.8167960594251</v>
+        <v>62.81679605942509</v>
       </c>
       <c r="E19" t="n">
-        <v>60.63528568778192</v>
+        <v>60.6352856877819</v>
       </c>
       <c r="F19" t="n">
-        <v>59.62237106414399</v>
+        <v>59.62237106414398</v>
       </c>
       <c r="G19" t="n">
-        <v>80.22713130024097</v>
+        <v>80.22713130024096</v>
       </c>
       <c r="H19" t="n">
-        <v>58.95633795553353</v>
+        <v>58.95633795553351</v>
       </c>
       <c r="I19" t="n">
-        <v>10.55374345105083</v>
+        <v>10.55374345105084</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>84.39011603774006</v>
       </c>
       <c r="S19" t="n">
-        <v>103.9703483726546</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>215.006912643863</v>
+        <v>133.7502723173819</v>
       </c>
       <c r="U19" t="n">
         <v>200.4131612468256</v>
@@ -2062,10 +2062,10 @@
         <v>166.3389663650407</v>
       </c>
       <c r="W19" t="n">
-        <v>200.7243213778037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>139.9109784302499</v>
       </c>
       <c r="Y19" t="n">
         <v>132.7859763933075</v>
@@ -2090,10 +2090,10 @@
         <v>296.1316931134745</v>
       </c>
       <c r="F20" t="n">
-        <v>154.6727630124763</v>
+        <v>321.0773687829242</v>
       </c>
       <c r="G20" t="n">
-        <v>325.1230486946662</v>
+        <v>158.718442924218</v>
       </c>
       <c r="H20" t="n">
         <v>208.8090874285332</v>
@@ -2132,13 +2132,13 @@
         <v>23.38908482938858</v>
       </c>
       <c r="T20" t="n">
-        <v>118.1192931808329</v>
+        <v>118.1192931808332</v>
       </c>
       <c r="U20" t="n">
-        <v>165.1964950001152</v>
+        <v>165.1964950001147</v>
       </c>
       <c r="V20" t="n">
-        <v>241.9535815113477</v>
+        <v>241.9535815113476</v>
       </c>
       <c r="W20" t="n">
         <v>263.4422917586257</v>
@@ -2147,7 +2147,7 @@
         <v>283.9324237196818</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.4392616972664</v>
+        <v>300.4392616972663</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.03330322315006</v>
+        <v>94.03330322315003</v>
       </c>
       <c r="C22" t="n">
-        <v>81.44814413984059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>62.81679605942512</v>
+        <v>62.81679605942509</v>
       </c>
       <c r="E22" t="n">
-        <v>60.63528568778193</v>
+        <v>60.6352856877819</v>
       </c>
       <c r="F22" t="n">
-        <v>59.62237106414401</v>
+        <v>59.62237106414398</v>
       </c>
       <c r="G22" t="n">
-        <v>80.22713130024098</v>
+        <v>80.22713130024096</v>
       </c>
       <c r="H22" t="n">
-        <v>58.95633795553354</v>
+        <v>58.95633795553351</v>
       </c>
       <c r="I22" t="n">
-        <v>10.55374345105086</v>
+        <v>10.55374345105084</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>3.133475711260076</v>
       </c>
       <c r="S22" t="n">
-        <v>103.9703483726547</v>
+        <v>103.9703483726546</v>
       </c>
       <c r="T22" t="n">
-        <v>133.750272317382</v>
+        <v>215.0069126438623</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>200.4131612468256</v>
       </c>
       <c r="V22" t="n">
-        <v>166.3389663650408</v>
+        <v>166.3389663650407</v>
       </c>
       <c r="W22" t="n">
-        <v>200.7243213778038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>221.1676187567301</v>
+        <v>139.9109784302499</v>
       </c>
       <c r="Y22" t="n">
         <v>132.7859763933075</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>23.38908482938859</v>
+        <v>23.38908482938858</v>
       </c>
       <c r="T23" t="n">
         <v>118.1192931808329</v>
       </c>
       <c r="U23" t="n">
-        <v>165.1964950001156</v>
+        <v>165.1964950001143</v>
       </c>
       <c r="V23" t="n">
-        <v>241.9535815113477</v>
+        <v>241.9535815113476</v>
       </c>
       <c r="W23" t="n">
         <v>263.4422917586257</v>
@@ -2384,7 +2384,7 @@
         <v>283.9324237196818</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.4392616972664</v>
+        <v>300.4392616972663</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247703</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.03330322315006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>81.44814413984059</v>
+        <v>81.44814413984057</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>62.81679605942509</v>
       </c>
       <c r="E25" t="n">
-        <v>60.63528568778193</v>
+        <v>60.6352856877819</v>
       </c>
       <c r="F25" t="n">
-        <v>59.62237106414401</v>
+        <v>140.8790113906239</v>
       </c>
       <c r="G25" t="n">
-        <v>80.22713130024098</v>
+        <v>80.22713130024096</v>
       </c>
       <c r="H25" t="n">
-        <v>58.95633795553354</v>
+        <v>58.95633795553351</v>
       </c>
       <c r="I25" t="n">
-        <v>10.55374345105086</v>
+        <v>10.55374345105084</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.13347571126009</v>
+        <v>3.133475711260076</v>
       </c>
       <c r="S25" t="n">
-        <v>103.9703483726547</v>
+        <v>103.9703483726546</v>
       </c>
       <c r="T25" t="n">
-        <v>133.750272317382</v>
+        <v>133.7502723173819</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>200.4131612468256</v>
       </c>
       <c r="V25" t="n">
-        <v>247.5956066915209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>200.7243213778038</v>
+        <v>200.7243213778037</v>
       </c>
       <c r="X25" t="n">
         <v>139.9109784302499</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.38908482938859</v>
+        <v>23.38908482938858</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1192931808329</v>
+        <v>118.1192931808327</v>
       </c>
       <c r="U26" t="n">
-        <v>165.1964950001156</v>
+        <v>165.1964950001152</v>
       </c>
       <c r="V26" t="n">
-        <v>241.9535815113477</v>
+        <v>241.9535815113476</v>
       </c>
       <c r="W26" t="n">
         <v>263.4422917586257</v>
@@ -2621,7 +2621,7 @@
         <v>283.9324237196818</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.4392616972664</v>
+        <v>300.4392616972663</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247702</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.03330322315006</v>
+        <v>94.03330322315003</v>
       </c>
       <c r="C28" t="n">
-        <v>81.44814413984059</v>
+        <v>81.44814413984057</v>
       </c>
       <c r="D28" t="n">
-        <v>62.81679605942512</v>
+        <v>62.81679605942509</v>
       </c>
       <c r="E28" t="n">
-        <v>60.63528568778193</v>
+        <v>60.6352856877819</v>
       </c>
       <c r="F28" t="n">
-        <v>59.62237106414401</v>
+        <v>59.62237106414398</v>
       </c>
       <c r="G28" t="n">
-        <v>80.22713130024098</v>
+        <v>161.4837716267208</v>
       </c>
       <c r="H28" t="n">
-        <v>58.95633795553354</v>
+        <v>58.95633795553351</v>
       </c>
       <c r="I28" t="n">
-        <v>10.55374345105086</v>
+        <v>10.55374345105084</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>3.133475711260076</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9703483726547</v>
+        <v>103.9703483726546</v>
       </c>
       <c r="T28" t="n">
-        <v>133.750272317382</v>
+        <v>133.7502723173819</v>
       </c>
       <c r="U28" t="n">
-        <v>200.4131612468256</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>166.3389663650407</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7243213778038</v>
+        <v>200.7243213778037</v>
       </c>
       <c r="X28" t="n">
-        <v>221.1676187567301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>132.7859763933075</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210273</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124537</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403088</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091572</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124577</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533747</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.6598613601165</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439349</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4866237999594</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115157</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307976</v>
+        <v>153.3104517307967</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>170.2318734253262</v>
+        <v>170.2318734253258</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>810.5660676371782</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324633</v>
+        <v>452.3003690304277</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271507</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271507</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271507</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271507</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271508</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>195.1146786018699</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.621931827995</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
         <v>976.3387758760402</v>
@@ -5215,34 +5215,34 @@
         <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621287</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>590.807066125168</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271507</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271507</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>1235.49603438625</v>
       </c>
       <c r="C14" t="n">
-        <v>905.7492147591662</v>
+        <v>905.7492147591661</v>
       </c>
       <c r="D14" t="n">
-        <v>586.6992134657437</v>
+        <v>586.6992134657435</v>
       </c>
       <c r="E14" t="n">
-        <v>240.1266581808268</v>
+        <v>327.6612209572916</v>
       </c>
       <c r="F14" t="n">
-        <v>240.1266581808268</v>
+        <v>327.6612209572916</v>
       </c>
       <c r="G14" t="n">
-        <v>69.29331787938689</v>
+        <v>327.6612209572916</v>
       </c>
       <c r="H14" t="n">
-        <v>69.29331787938689</v>
+        <v>69.29331787938672</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5291,7 +5291,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,25 +5300,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.530850449594</v>
+        <v>3254.530850449593</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.768800147144</v>
+        <v>3087.768800147143</v>
       </c>
       <c r="U14" t="n">
         <v>2873.454020734308</v>
       </c>
       <c r="V14" t="n">
-        <v>2581.606830704066</v>
+        <v>2581.606830704065</v>
       </c>
       <c r="W14" t="n">
-        <v>2268.05387274728</v>
+        <v>2268.053872747279</v>
       </c>
       <c r="X14" t="n">
-        <v>1933.803811799528</v>
+        <v>1933.803811799527</v>
       </c>
       <c r="Y14" t="n">
         <v>1582.880177137044</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5400,7 +5400,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8001865676756</v>
+        <v>620.8001865676754</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0797009530967</v>
+        <v>491.0797009530963</v>
       </c>
       <c r="D16" t="n">
-        <v>380.1787588540889</v>
+        <v>380.1787588540886</v>
       </c>
       <c r="E16" t="n">
-        <v>271.4813625850238</v>
+        <v>271.4813625850235</v>
       </c>
       <c r="F16" t="n">
-        <v>271.4813625850238</v>
+        <v>173.5136059009976</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9942232730707</v>
+        <v>173.5136059009976</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>150.0700538159118</v>
+        <v>150.0700538159117</v>
       </c>
       <c r="K16" t="n">
-        <v>392.4925417015809</v>
+        <v>392.4925417015808</v>
       </c>
       <c r="L16" t="n">
         <v>747.4876450868696</v>
@@ -5461,10 +5461,10 @@
         <v>2184.16222765369</v>
       </c>
       <c r="S16" t="n">
-        <v>2031.692040793844</v>
+        <v>2031.692040793845</v>
       </c>
       <c r="T16" t="n">
-        <v>1849.141122676698</v>
+        <v>1849.141122676699</v>
       </c>
       <c r="U16" t="n">
         <v>1599.25395311567</v>
@@ -5479,7 +5479,7 @@
         <v>944.8098359147893</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.2329540845873</v>
+        <v>763.2329540845872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1615.093097970837</v>
+        <v>1783.178558345026</v>
       </c>
       <c r="C17" t="n">
-        <v>1332.795911291827</v>
+        <v>1500.881371666016</v>
       </c>
       <c r="D17" t="n">
-        <v>1061.195542946477</v>
+        <v>1229.281003320667</v>
       </c>
       <c r="E17" t="n">
-        <v>762.0726206096343</v>
+        <v>930.1580809838235</v>
       </c>
       <c r="F17" t="n">
-        <v>605.8375064556171</v>
+        <v>605.8375064556174</v>
       </c>
       <c r="G17" t="n">
-        <v>277.430386562015</v>
+        <v>277.4303865620149</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5534,19 +5534,19 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3301.980483397668</v>
+        <v>3301.980483397667</v>
       </c>
       <c r="T17" t="n">
-        <v>3182.668066043291</v>
+        <v>3182.66806604329</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.802919578529</v>
+        <v>3015.802919578528</v>
       </c>
       <c r="V17" t="n">
         <v>2771.405362496359</v>
@@ -5555,10 +5555,10 @@
         <v>2505.302037487646</v>
       </c>
       <c r="X17" t="n">
-        <v>2218.501609487968</v>
+        <v>2218.501609487967</v>
       </c>
       <c r="Y17" t="n">
-        <v>1915.027607773558</v>
+        <v>1915.027607773557</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.9563686119985</v>
+        <v>484.9563686119984</v>
       </c>
       <c r="C19" t="n">
-        <v>402.6855159454929</v>
+        <v>402.6855159454927</v>
       </c>
       <c r="D19" t="n">
-        <v>339.2342067945584</v>
+        <v>339.2342067945583</v>
       </c>
       <c r="E19" t="n">
-        <v>277.9864434735666</v>
+        <v>277.9864434735665</v>
       </c>
       <c r="F19" t="n">
-        <v>217.7618262370575</v>
+        <v>217.7618262370574</v>
       </c>
       <c r="G19" t="n">
         <v>136.7243198731777</v>
@@ -5668,22 +5668,22 @@
         <v>77.17246335243679</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5692,13 +5692,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1842.05200663623</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.443536934249</v>
+        <v>1650.366122463056</v>
       </c>
       <c r="T19" t="n">
         <v>1515.264837293983</v>
@@ -5710,13 +5710,13 @@
         <v>1144.808142736542</v>
       </c>
       <c r="W19" t="n">
-        <v>942.0563029609831</v>
+        <v>855.3909726995817</v>
       </c>
       <c r="X19" t="n">
-        <v>714.0667520629657</v>
+        <v>714.0667520629656</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.9395031808369</v>
+        <v>579.9395031808368</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>1615.093097970836</v>
       </c>
       <c r="C20" t="n">
-        <v>1332.795911291826</v>
+        <v>1332.795911291825</v>
       </c>
       <c r="D20" t="n">
-        <v>1061.195542946477</v>
+        <v>1061.195542946476</v>
       </c>
       <c r="E20" t="n">
-        <v>762.0726206096338</v>
+        <v>762.0726206096331</v>
       </c>
       <c r="F20" t="n">
-        <v>605.8375064556172</v>
+        <v>437.7520460814267</v>
       </c>
       <c r="G20" t="n">
-        <v>277.430386562015</v>
+        <v>277.4303865620149</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3301.980483397668</v>
+        <v>3301.980483397667</v>
       </c>
       <c r="T20" t="n">
-        <v>3182.668066043291</v>
+        <v>3182.66806604329</v>
       </c>
       <c r="U20" t="n">
         <v>3015.802919578528</v>
       </c>
       <c r="V20" t="n">
-        <v>2771.405362496359</v>
+        <v>2771.405362496358</v>
       </c>
       <c r="W20" t="n">
-        <v>2505.302037487646</v>
+        <v>2505.302037487645</v>
       </c>
       <c r="X20" t="n">
         <v>2218.501609487967</v>
       </c>
       <c r="Y20" t="n">
-        <v>1915.027607773557</v>
+        <v>1915.027607773556</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.9563686119986</v>
+        <v>571.6216988733996</v>
       </c>
       <c r="C22" t="n">
-        <v>402.685515945493</v>
+        <v>402.6855159454927</v>
       </c>
       <c r="D22" t="n">
-        <v>339.2342067945585</v>
+        <v>339.2342067945583</v>
       </c>
       <c r="E22" t="n">
-        <v>277.9864434735667</v>
+        <v>277.9864434735665</v>
       </c>
       <c r="F22" t="n">
-        <v>217.7618262370576</v>
+        <v>217.7618262370574</v>
       </c>
       <c r="G22" t="n">
-        <v>136.7243198731778</v>
+        <v>136.7243198731777</v>
       </c>
       <c r="H22" t="n">
-        <v>77.17246335243682</v>
+        <v>77.17246335243679</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1924.129421107422</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.443536934248</v>
+        <v>1819.108867195649</v>
       </c>
       <c r="T22" t="n">
-        <v>1597.342251765176</v>
+        <v>1601.930167555384</v>
       </c>
       <c r="U22" t="n">
-        <v>1308.239384890819</v>
+        <v>1399.492630942429</v>
       </c>
       <c r="V22" t="n">
-        <v>1140.220226946333</v>
+        <v>1231.473472997943</v>
       </c>
       <c r="W22" t="n">
-        <v>937.4683871707741</v>
+        <v>942.0563029609829</v>
       </c>
       <c r="X22" t="n">
-        <v>714.0667520629659</v>
+        <v>800.7320823243668</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9395031808371</v>
+        <v>666.604833442238</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1786.608873862866</v>
+        <v>1786.608873862867</v>
       </c>
       <c r="C23" t="n">
         <v>1504.311687183856</v>
@@ -5972,64 +5972,64 @@
         <v>1232.711318838507</v>
       </c>
       <c r="E23" t="n">
-        <v>933.5883965016641</v>
+        <v>933.588396501664</v>
       </c>
       <c r="F23" t="n">
         <v>609.2678219734578</v>
       </c>
       <c r="G23" t="n">
-        <v>280.8607020798556</v>
+        <v>280.8607020798555</v>
       </c>
       <c r="H23" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002402</v>
       </c>
       <c r="I23" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002402</v>
       </c>
       <c r="J23" t="n">
-        <v>258.8215629090495</v>
+        <v>258.8215629090494</v>
       </c>
       <c r="K23" t="n">
-        <v>592.6409365988959</v>
+        <v>592.6409365988958</v>
       </c>
       <c r="L23" t="n">
         <v>1043.675149847305</v>
       </c>
       <c r="M23" t="n">
-        <v>1577.207054519229</v>
+        <v>1745.292514893419</v>
       </c>
       <c r="N23" t="n">
-        <v>2123.985871578011</v>
+        <v>2292.071331952201</v>
       </c>
       <c r="O23" t="n">
-        <v>2626.958342457348</v>
+        <v>2795.043802831538</v>
       </c>
       <c r="P23" t="n">
-        <v>3021.732708814527</v>
+        <v>3189.818169188716</v>
       </c>
       <c r="Q23" t="n">
-        <v>3373.045275270147</v>
+        <v>3438.104530944398</v>
       </c>
       <c r="R23" t="n">
-        <v>3497.121597501202</v>
+        <v>3497.121597501201</v>
       </c>
       <c r="S23" t="n">
-        <v>3473.496259289698</v>
+        <v>3473.496259289697</v>
       </c>
       <c r="T23" t="n">
-        <v>3354.183841935322</v>
+        <v>3354.183841935321</v>
       </c>
       <c r="U23" t="n">
-        <v>3187.318695470558</v>
+        <v>3187.318695470559</v>
       </c>
       <c r="V23" t="n">
-        <v>2942.921138388388</v>
+        <v>2942.921138388389</v>
       </c>
       <c r="W23" t="n">
-        <v>2676.817813379675</v>
+        <v>2676.817813379676</v>
       </c>
       <c r="X23" t="n">
-        <v>2390.017385379997</v>
+        <v>2390.017385379998</v>
       </c>
       <c r="Y23" t="n">
         <v>2086.543383665587</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>944.9741699989492</v>
+        <v>944.9741699989488</v>
       </c>
       <c r="C24" t="n">
-        <v>770.5211407178222</v>
+        <v>770.5211407178218</v>
       </c>
       <c r="D24" t="n">
-        <v>621.5867310565709</v>
+        <v>621.5867310565706</v>
       </c>
       <c r="E24" t="n">
-        <v>462.3492760511155</v>
+        <v>462.3492760511151</v>
       </c>
       <c r="F24" t="n">
-        <v>315.8147180780005</v>
+        <v>315.8147180780001</v>
       </c>
       <c r="G24" t="n">
-        <v>179.4516179106186</v>
+        <v>179.4516179106182</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94972354848608</v>
+        <v>88.94972354848566</v>
       </c>
       <c r="I24" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002402</v>
       </c>
       <c r="J24" t="n">
-        <v>163.619701440641</v>
+        <v>163.6197014406413</v>
       </c>
       <c r="K24" t="n">
-        <v>401.8839004209881</v>
+        <v>401.8839004209884</v>
       </c>
       <c r="L24" t="n">
-        <v>768.5820607336535</v>
+        <v>768.5820607336536</v>
       </c>
       <c r="M24" t="n">
         <v>1215.858385955969</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.0520143912405</v>
+        <v>570.4640986010309</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7811617247348</v>
+        <v>488.1932459345252</v>
       </c>
       <c r="D25" t="n">
-        <v>342.6645223123991</v>
+        <v>424.7419367835908</v>
       </c>
       <c r="E25" t="n">
-        <v>281.4167589914073</v>
+        <v>363.494173462599</v>
       </c>
       <c r="F25" t="n">
-        <v>221.1921417548982</v>
+        <v>221.192141754898</v>
       </c>
       <c r="G25" t="n">
-        <v>140.1546353910184</v>
+        <v>140.1546353910183</v>
       </c>
       <c r="H25" t="n">
-        <v>80.60277887027743</v>
+        <v>80.60277887027739</v>
       </c>
       <c r="I25" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002402</v>
       </c>
       <c r="J25" t="n">
-        <v>115.0650643969596</v>
+        <v>115.0650643969595</v>
       </c>
       <c r="K25" t="n">
-        <v>319.052247345836</v>
+        <v>319.0522473458359</v>
       </c>
       <c r="L25" t="n">
         <v>635.6120457943321</v>
       </c>
       <c r="M25" t="n">
-        <v>979.7690913938811</v>
+        <v>979.769091393881</v>
       </c>
       <c r="N25" t="n">
         <v>1321.177468099746</v>
@@ -6163,13 +6163,13 @@
         <v>1620.507067020159</v>
       </c>
       <c r="P25" t="n">
-        <v>1853.114567453819</v>
+        <v>1853.114567453818</v>
       </c>
       <c r="Q25" t="n">
         <v>1930.724863606333</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.559736625263</v>
+        <v>1927.559736625262</v>
       </c>
       <c r="S25" t="n">
         <v>1822.53918271349</v>
@@ -6178,19 +6178,19 @@
         <v>1687.437897544417</v>
       </c>
       <c r="U25" t="n">
-        <v>1398.335030670061</v>
+        <v>1485.000360931462</v>
       </c>
       <c r="V25" t="n">
-        <v>1148.238458254383</v>
+        <v>1230.315872725575</v>
       </c>
       <c r="W25" t="n">
-        <v>945.4866184788239</v>
+        <v>1027.564032950015</v>
       </c>
       <c r="X25" t="n">
-        <v>804.1623978422077</v>
+        <v>886.2398123133994</v>
       </c>
       <c r="Y25" t="n">
-        <v>670.0351489600789</v>
+        <v>752.1125634312706</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>609.2678219734576</v>
       </c>
       <c r="G26" t="n">
-        <v>280.8607020798556</v>
+        <v>280.8607020798555</v>
       </c>
       <c r="H26" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002403</v>
       </c>
       <c r="I26" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002403</v>
       </c>
       <c r="J26" t="n">
-        <v>258.8215629090495</v>
+        <v>258.8215629090494</v>
       </c>
       <c r="K26" t="n">
-        <v>592.6409365988959</v>
+        <v>592.6409365988958</v>
       </c>
       <c r="L26" t="n">
         <v>1043.675149847305</v>
@@ -6236,25 +6236,25 @@
         <v>1577.207054519229</v>
       </c>
       <c r="N26" t="n">
-        <v>2123.985871578011</v>
+        <v>2292.071331952202</v>
       </c>
       <c r="O26" t="n">
-        <v>2626.958342457348</v>
+        <v>2795.043802831539</v>
       </c>
       <c r="P26" t="n">
-        <v>3021.732708814527</v>
+        <v>3189.818169188717</v>
       </c>
       <c r="Q26" t="n">
-        <v>3373.045275270147</v>
+        <v>3438.104530944399</v>
       </c>
       <c r="R26" t="n">
-        <v>3497.121597501202</v>
+        <v>3497.121597501201</v>
       </c>
       <c r="S26" t="n">
         <v>3473.496259289698</v>
       </c>
       <c r="T26" t="n">
-        <v>3354.183841935322</v>
+        <v>3354.183841935321</v>
       </c>
       <c r="U26" t="n">
         <v>3187.318695470558</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.9741699989493</v>
+        <v>944.9741699989488</v>
       </c>
       <c r="C27" t="n">
-        <v>770.5211407178223</v>
+        <v>770.5211407178218</v>
       </c>
       <c r="D27" t="n">
-        <v>621.586731056571</v>
+        <v>621.5867310565706</v>
       </c>
       <c r="E27" t="n">
-        <v>462.3492760511155</v>
+        <v>462.3492760511151</v>
       </c>
       <c r="F27" t="n">
-        <v>315.8147180780005</v>
+        <v>315.8147180780001</v>
       </c>
       <c r="G27" t="n">
-        <v>179.4516179106186</v>
+        <v>179.4516179106182</v>
       </c>
       <c r="H27" t="n">
-        <v>88.94972354848613</v>
+        <v>88.94972354848566</v>
       </c>
       <c r="I27" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002403</v>
       </c>
       <c r="J27" t="n">
-        <v>163.6197014406414</v>
+        <v>163.6197014406413</v>
       </c>
       <c r="K27" t="n">
-        <v>401.8839004209885</v>
+        <v>401.8839004209884</v>
       </c>
       <c r="L27" t="n">
-        <v>768.5820607336539</v>
+        <v>768.5820607336536</v>
       </c>
       <c r="M27" t="n">
-        <v>1215.85838595597</v>
+        <v>1215.858385955969</v>
       </c>
       <c r="N27" t="n">
         <v>1689.381429510424</v>
@@ -6324,7 +6324,7 @@
         <v>2410.842300404582</v>
       </c>
       <c r="Q27" t="n">
-        <v>2568.483858051182</v>
+        <v>2568.483858051181</v>
       </c>
       <c r="R27" t="n">
         <v>2568.339504643697</v>
@@ -6333,13 +6333,13 @@
         <v>2438.901618137177</v>
       </c>
       <c r="T27" t="n">
-        <v>2246.258617815033</v>
+        <v>2246.258617815032</v>
       </c>
       <c r="U27" t="n">
         <v>2018.190770949448</v>
       </c>
       <c r="V27" t="n">
-        <v>1783.038662717706</v>
+        <v>1783.038662717705</v>
       </c>
       <c r="W27" t="n">
         <v>1528.801305989504</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.3866841298393</v>
+        <v>570.4640986010309</v>
       </c>
       <c r="C28" t="n">
-        <v>406.1158314633336</v>
+        <v>488.1932459345252</v>
       </c>
       <c r="D28" t="n">
-        <v>342.6645223123991</v>
+        <v>424.7419367835908</v>
       </c>
       <c r="E28" t="n">
-        <v>281.4167589914073</v>
+        <v>363.494173462599</v>
       </c>
       <c r="F28" t="n">
-        <v>221.1921417548982</v>
+        <v>303.2695562260899</v>
       </c>
       <c r="G28" t="n">
-        <v>140.1546353910184</v>
+        <v>140.1546353910183</v>
       </c>
       <c r="H28" t="n">
-        <v>80.60277887027743</v>
+        <v>80.6027788702774</v>
       </c>
       <c r="I28" t="n">
-        <v>69.94243195002404</v>
+        <v>69.94243195002403</v>
       </c>
       <c r="J28" t="n">
         <v>115.0650643969596</v>
       </c>
       <c r="K28" t="n">
-        <v>319.052247345836</v>
+        <v>319.0522473458359</v>
       </c>
       <c r="L28" t="n">
         <v>635.6120457943321</v>
       </c>
       <c r="M28" t="n">
-        <v>979.7690913938811</v>
+        <v>979.769091393881</v>
       </c>
       <c r="N28" t="n">
         <v>1321.177468099746</v>
@@ -6400,34 +6400,34 @@
         <v>1620.507067020159</v>
       </c>
       <c r="P28" t="n">
-        <v>1853.114567453819</v>
+        <v>1853.114567453818</v>
       </c>
       <c r="Q28" t="n">
         <v>1930.724863606333</v>
       </c>
       <c r="R28" t="n">
-        <v>1840.894406363861</v>
+        <v>1927.559736625262</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.873852452089</v>
+        <v>1822.53918271349</v>
       </c>
       <c r="T28" t="n">
-        <v>1600.772567283016</v>
+        <v>1687.437897544417</v>
       </c>
       <c r="U28" t="n">
-        <v>1398.335030670061</v>
+        <v>1398.33503067006</v>
       </c>
       <c r="V28" t="n">
-        <v>1143.650542464174</v>
+        <v>1230.315872725575</v>
       </c>
       <c r="W28" t="n">
-        <v>940.8987026886148</v>
+        <v>1027.564032950015</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4970675808065</v>
+        <v>799.5744820519981</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3698186986777</v>
+        <v>665.4472331698693</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
@@ -6607,28 +6607,28 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6643,28 +6643,28 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,43 +6920,43 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6974,13 +6974,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.733644122599</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685355</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300432</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205428</v>
+        <v>835.3471215411926</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225255</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789953</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
@@ -7172,16 +7172,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7208,7 +7208,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
@@ -7242,10 +7242,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225988</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685353</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>332.023690930043</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214933</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974263</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7330,16 +7330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359731</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728558</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486819</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789951</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,7 +7394,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F41" t="n">
         <v>581.825297830733</v>
@@ -7403,22 +7403,22 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647791</v>
+        <v>444.8926667912271</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368722</v>
+        <v>374.6279184371636</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>323.1827135986713</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>273.9410545901216</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>225.7225416660547</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>156.691139614617</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063182</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150362</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908622</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211755</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
@@ -7640,13 +7640,13 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810557</v>
@@ -7664,34 +7664,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552289</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.980392515328</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170187</v>
+        <v>804.700439790862</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>165.7733219742939</v>
+        <v>165.773321974294</v>
       </c>
       <c r="K8" t="n">
-        <v>197.2002088075528</v>
+        <v>197.2002088075529</v>
       </c>
       <c r="L8" t="n">
-        <v>207.3697897338375</v>
+        <v>207.3697897338377</v>
       </c>
       <c r="M8" t="n">
-        <v>198.7495162081382</v>
+        <v>198.7495162081384</v>
       </c>
       <c r="N8" t="n">
-        <v>197.3050786627362</v>
+        <v>197.3050786627364</v>
       </c>
       <c r="O8" t="n">
-        <v>199.7795517239074</v>
+        <v>199.7795517239075</v>
       </c>
       <c r="P8" t="n">
-        <v>205.3567211501977</v>
+        <v>205.3567211501979</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.8736852899382</v>
+        <v>202.8736852899384</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>117.7413811261266</v>
+        <v>117.7413811261267</v>
       </c>
       <c r="K9" t="n">
-        <v>122.2945065169028</v>
+        <v>122.2945065169029</v>
       </c>
       <c r="L9" t="n">
-        <v>117.6496104801928</v>
+        <v>117.649610480193</v>
       </c>
       <c r="M9" t="n">
-        <v>117.7391541635577</v>
+        <v>117.7391541635579</v>
       </c>
       <c r="N9" t="n">
-        <v>106.3011724468965</v>
+        <v>106.3011724468966</v>
       </c>
       <c r="O9" t="n">
-        <v>119.6890427436099</v>
+        <v>119.68904274361</v>
       </c>
       <c r="P9" t="n">
-        <v>115.5893585148347</v>
+        <v>115.5893585148348</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.6918557808417</v>
+        <v>127.6918557808418</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>122.8842592690601</v>
+        <v>122.8842592690602</v>
       </c>
       <c r="M10" t="n">
-        <v>126.2730267908857</v>
+        <v>126.2730267908858</v>
       </c>
       <c r="N10" t="n">
-        <v>115.3336415933978</v>
+        <v>115.3336415933979</v>
       </c>
       <c r="O10" t="n">
-        <v>127.0475569362902</v>
+        <v>127.0475569362903</v>
       </c>
       <c r="P10" t="n">
-        <v>127.9656494001309</v>
+        <v>127.965649400131</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>169.7832933072632</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.0668734342806</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>169.7832933072638</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.0668734342806</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431554</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>255.1805474109822</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839107</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>17.43847836633115</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>92.48912964370415</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>86.65921714870007</v>
       </c>
       <c r="F14" t="n">
         <v>368.0525054015167</v>
       </c>
       <c r="G14" t="n">
-        <v>202.9731784148333</v>
+        <v>372.0981853132587</v>
       </c>
       <c r="H14" t="n">
-        <v>255.7842240471257</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>106.5975076827365</v>
+        <v>9.609428565551298</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.2022679188335</v>
       </c>
       <c r="H16" t="n">
-        <v>30.21418880164777</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.52888006964341</v>
+        <v>57.52888006964342</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>166.4046057704483</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>166.4046057704471</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>166.4046057704478</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>166.4046057704482</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1325685.052182091</v>
+        <v>1325685.052182092</v>
       </c>
     </row>
     <row r="7">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38334.15881369224</v>
+        <v>38334.158813692</v>
       </c>
       <c r="E3" t="n">
-        <v>1087806.734002842</v>
+        <v>1087806.734002843</v>
       </c>
       <c r="F3" t="n">
-        <v>31058.83227215576</v>
+        <v>31058.8322721556</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>36045.94852191637</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>438372.4697052367</v>
+        <v>438372.4697052368</v>
       </c>
       <c r="E4" t="n">
         <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>52053.08559899299</v>
+        <v>52053.085598993</v>
       </c>
       <c r="G4" t="n">
-        <v>84623.62861052639</v>
+        <v>84623.62861052642</v>
       </c>
       <c r="H4" t="n">
-        <v>84623.62861052639</v>
+        <v>84623.62861052642</v>
       </c>
       <c r="I4" t="n">
-        <v>91401.27580937636</v>
+        <v>91401.27580937638</v>
       </c>
       <c r="J4" t="n">
-        <v>91401.27580937636</v>
+        <v>91401.27580937641</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.9551969958</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34603.39519033842</v>
+        <v>34603.39519033841</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>77570.19677425313</v>
+        <v>77570.19677425311</v>
       </c>
       <c r="G5" t="n">
-        <v>81519.3495346416</v>
+        <v>81519.34953464157</v>
       </c>
       <c r="H5" t="n">
-        <v>81519.34953464159</v>
+        <v>81519.34953464157</v>
       </c>
       <c r="I5" t="n">
-        <v>84126.38932820046</v>
+        <v>84126.38932820044</v>
       </c>
       <c r="J5" t="n">
         <v>84126.38932820046</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486027.5905489651</v>
+        <v>-486032.0041268333</v>
       </c>
       <c r="C6" t="n">
-        <v>-486027.5905489651</v>
+        <v>-486032.0041268333</v>
       </c>
       <c r="D6" t="n">
-        <v>-511310.0237092674</v>
+        <v>-511314.4014781376</v>
       </c>
       <c r="E6" t="n">
-        <v>-1174933.197491388</v>
+        <v>-1175280.816421195</v>
       </c>
       <c r="F6" t="n">
-        <v>-160682.1146454019</v>
+        <v>-160858.3102516598</v>
       </c>
       <c r="G6" t="n">
-        <v>-203723.087440042</v>
+        <v>-203756.2019565904</v>
       </c>
       <c r="H6" t="n">
-        <v>-166142.978145168</v>
+        <v>-166176.0926617163</v>
       </c>
       <c r="I6" t="n">
         <v>-186930.076797823</v>
       </c>
       <c r="J6" t="n">
-        <v>-175527.6651375768</v>
+        <v>-175527.6651375769</v>
       </c>
       <c r="K6" t="n">
         <v>-214384.8453937183</v>
       </c>
       <c r="L6" t="n">
-        <v>-215919.0061666759</v>
+        <v>-215919.006166676</v>
       </c>
       <c r="M6" t="n">
-        <v>-376870.5962171559</v>
+        <v>-376870.596217156</v>
       </c>
       <c r="N6" t="n">
-        <v>-174702.4962244316</v>
+        <v>-174702.4962244315</v>
       </c>
       <c r="O6" t="n">
         <v>-174702.4962244316</v>
@@ -26698,34 +26698,34 @@
         <v>38.8235403401947</v>
       </c>
       <c r="G2" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H2" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I2" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="J2" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.76124726323045</v>
+        <v>44.76124726323017</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="I4" t="n">
-        <v>874.2803993753005</v>
+        <v>874.2803993753002</v>
       </c>
       <c r="J4" t="n">
-        <v>874.2803993753005</v>
+        <v>874.2803993753004</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>38.8235403401947</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.76124726323045</v>
+        <v>44.76124726323017</v>
       </c>
       <c r="E3" t="n">
         <v>1045.015453330068</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>38.8235403401947</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.3055926659905</v>
       </c>
       <c r="I9" t="n">
-        <v>86.08176689843056</v>
+        <v>86.08176689843057</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.18009626341397</v>
+        <v>94.18009626341401</v>
       </c>
       <c r="S9" t="n">
         <v>169.8948325928965</v>
@@ -28032,10 +28032,10 @@
         <v>153.0230945019015</v>
       </c>
       <c r="J10" t="n">
-        <v>87.65248798608026</v>
+        <v>87.6524879860803</v>
       </c>
       <c r="K10" t="n">
-        <v>12.8916436287667</v>
+        <v>12.89164362876676</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.40309491494659</v>
+        <v>79.40309491494664</v>
       </c>
       <c r="R10" t="n">
         <v>173.6640613941541</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y17" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.542036632307287</v>
       </c>
       <c r="S19" t="n">
-        <v>85.79867695878725</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.542036632306178</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W19" t="n">
-        <v>85.79867695878725</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.79867695878725</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y20" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C22" t="n">
-        <v>85.79867695878724</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="S22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T22" t="n">
-        <v>85.79867695878724</v>
+        <v>4.542036632306861</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W22" t="n">
-        <v>85.79867695878724</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.542036632307003</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y23" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.79867695878724</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F25" t="n">
-        <v>85.79867695878724</v>
+        <v>4.542036632307344</v>
       </c>
       <c r="G25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="S25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V25" t="n">
-        <v>4.542036632307145</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="H26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="V26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="C28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="D28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="E28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="F28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="G28" t="n">
-        <v>85.79867695878724</v>
+        <v>4.542036632307401</v>
       </c>
       <c r="H28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="I28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="S28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="T28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="U28" t="n">
-        <v>85.79867695878724</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="W28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
       <c r="X28" t="n">
-        <v>4.542036632307003</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.79867695878724</v>
+        <v>85.79867695878727</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859212</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565345</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371149</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565356</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544462</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>46.7252144056535</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371092</v>
+        <v>55.47778196371138</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1799447126160017</v>
+        <v>0.1799447126160006</v>
       </c>
       <c r="H8" t="n">
-        <v>1.842858788078628</v>
+        <v>1.842858788078616</v>
       </c>
       <c r="I8" t="n">
-        <v>6.937318533128411</v>
+        <v>6.937318533128368</v>
       </c>
       <c r="J8" t="n">
-        <v>15.27258255239239</v>
+        <v>15.27258255239229</v>
       </c>
       <c r="K8" t="n">
-        <v>22.88964223742774</v>
+        <v>22.8896422374276</v>
       </c>
       <c r="L8" t="n">
-        <v>28.39662523614971</v>
+        <v>28.39662523614953</v>
       </c>
       <c r="M8" t="n">
-        <v>31.59671701913453</v>
+        <v>31.59671701913433</v>
       </c>
       <c r="N8" t="n">
-        <v>32.10798493385474</v>
+        <v>32.10798493385455</v>
       </c>
       <c r="O8" t="n">
-        <v>30.31865969777938</v>
+        <v>30.31865969777919</v>
       </c>
       <c r="P8" t="n">
-        <v>25.87627460507183</v>
+        <v>25.87627460507167</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.43200458451127</v>
+        <v>19.43200458451114</v>
       </c>
       <c r="R8" t="n">
-        <v>11.30345205386493</v>
+        <v>11.30345205386486</v>
       </c>
       <c r="S8" t="n">
-        <v>4.100490138737142</v>
+        <v>4.100490138737117</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7877079794765478</v>
+        <v>0.7877079794765429</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01439557700928013</v>
+        <v>0.01439557700928004</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09627890920770324</v>
+        <v>0.09627890920770264</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9298515705059761</v>
+        <v>0.9298515705059704</v>
       </c>
       <c r="I9" t="n">
-        <v>3.31486595298452</v>
+        <v>3.314865952984499</v>
       </c>
       <c r="J9" t="n">
-        <v>9.096245540540069</v>
+        <v>9.096245540540012</v>
       </c>
       <c r="K9" t="n">
-        <v>15.54693245745618</v>
+        <v>15.54693245745609</v>
       </c>
       <c r="L9" t="n">
-        <v>20.90476929968136</v>
+        <v>20.90476929968123</v>
       </c>
       <c r="M9" t="n">
-        <v>24.39487975846059</v>
+        <v>24.39487975846044</v>
       </c>
       <c r="N9" t="n">
-        <v>25.04053963643682</v>
+        <v>25.04053963643666</v>
       </c>
       <c r="O9" t="n">
-        <v>22.90720170083455</v>
+        <v>22.90720170083441</v>
       </c>
       <c r="P9" t="n">
-        <v>18.38504889949554</v>
+        <v>18.38504889949543</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.2899183051798</v>
+        <v>12.28991830517973</v>
       </c>
       <c r="R9" t="n">
-        <v>5.977737889229156</v>
+        <v>5.977737889229119</v>
       </c>
       <c r="S9" t="n">
-        <v>1.788338510941329</v>
+        <v>1.788338510941318</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3880715682538563</v>
+        <v>0.3880715682538539</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006334138763664689</v>
+        <v>0.00633413876366465</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0807170032615631</v>
+        <v>0.0807170032615626</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7176475380891706</v>
+        <v>0.7176475380891661</v>
       </c>
       <c r="I10" t="n">
-        <v>2.427380425356826</v>
+        <v>2.427380425356811</v>
       </c>
       <c r="J10" t="n">
-        <v>5.706692130592511</v>
+        <v>5.706692130592476</v>
       </c>
       <c r="K10" t="n">
-        <v>9.377848197116148</v>
+        <v>9.377848197116089</v>
       </c>
       <c r="L10" t="n">
-        <v>12.00041701217821</v>
+        <v>12.00041701217814</v>
       </c>
       <c r="M10" t="n">
-        <v>12.65275715671939</v>
+        <v>12.65275715671931</v>
       </c>
       <c r="N10" t="n">
-        <v>12.35190287183539</v>
+        <v>12.35190287183531</v>
       </c>
       <c r="O10" t="n">
-        <v>11.40898151555258</v>
+        <v>11.40898151555251</v>
       </c>
       <c r="P10" t="n">
-        <v>9.762354649016682</v>
+        <v>9.762354649016622</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.758948336747798</v>
+        <v>6.758948336747756</v>
       </c>
       <c r="R10" t="n">
-        <v>3.629329983015373</v>
+        <v>3.62932998301535</v>
       </c>
       <c r="S10" t="n">
-        <v>1.406677229567422</v>
+        <v>1.406677229567413</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3448817412084968</v>
+        <v>0.3448817412084947</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004402745632448902</v>
+        <v>0.004402745632448874</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.40195695326094</v>
+        <v>84.40195695326089</v>
       </c>
       <c r="K16" t="n">
         <v>244.8711998845142</v>
       </c>
       <c r="L16" t="n">
-        <v>358.5809125103927</v>
+        <v>358.5809125103928</v>
       </c>
       <c r="M16" t="n">
         <v>386.4569197336785</v>
       </c>
       <c r="N16" t="n">
-        <v>383.6804865077348</v>
+        <v>383.6804865077347</v>
       </c>
       <c r="O16" t="n">
         <v>341.1766705628344</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>708.7044091374897</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>354.8611782380001</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597672</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>722.085128720175</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>354.8611782380001</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468748</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174799</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165831</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
